--- a/biology/Zoologie/Engoulevent_bois-pourri/Engoulevent_bois-pourri.xlsx
+++ b/biology/Zoologie/Engoulevent_bois-pourri/Engoulevent_bois-pourri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrostomus vociferus
 L'Engoulevent bois-pourri (Antrostomus vociferus) est une espèce d'oiseaux appartenant à la famille des Caprimulgidae. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes ont le plumage tacheté : le haut est gris, noir et brun, les parties inférieures sont grises et noires. Ils ont un bec très court et une gorge noire. Les mâles ont une tache blanche au-dessous de la gorge et le bout des plumes de la queue blanc ; chez les femelles, ces pièces sont brun clair.
 </t>
@@ -546,7 +560,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dépose 2 œufs sur le sol, généralement sur des feuilles sèches. Ils sont blanc crème ou grisâtre, tachetés de lilas ou brun foncé ou très pâle.
 </t>
@@ -577,9 +593,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada cette espèce est menacée[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada cette espèce est menacée.
 </t>
         </is>
       </c>
